--- a/LR3/table_1_52.xlsx
+++ b/LR3/table_1_52.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF866C-382D-486F-8FF7-5EE5A24DF53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D6BA49-5617-4588-96F8-9C9783CAB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,9 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -596,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -646,11 +644,11 @@
       </c>
       <c r="D3" s="10">
         <f>IF(A3&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E3" s="8">
         <f>PRODUCT(C3,D3)</f>
-        <v>2464</v>
+        <v>4004</v>
       </c>
       <c r="F3" s="6">
         <v>44813</v>
@@ -671,7 +669,7 @@
       </c>
       <c r="K3" s="8">
         <f>SUM(J3,E3)</f>
-        <v>2464</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,11 +684,11 @@
       </c>
       <c r="D4" s="10">
         <f>IF(A4&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E38" si="0">PRODUCT(C4,D4)</f>
-        <v>2446.4</v>
+        <v>3975.4</v>
       </c>
       <c r="F4" s="6">
         <v>44813</v>
@@ -711,7 +709,7 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" ref="K4:K38" si="3">SUM(J4,E4)</f>
-        <v>2446.4</v>
+        <v>3975.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -726,11 +724,11 @@
       </c>
       <c r="D5" s="10">
         <f>IF(A5&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>2428.8000000000002</v>
+        <v>3946.8</v>
       </c>
       <c r="F5" s="6">
         <v>44813</v>
@@ -751,7 +749,7 @@
       </c>
       <c r="K5" s="8">
         <f t="shared" si="3"/>
-        <v>2428.8000000000002</v>
+        <v>3946.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -766,11 +764,11 @@
       </c>
       <c r="D6" s="10">
         <f>IF(A6&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>2411.2000000000003</v>
+        <v>3918.2000000000003</v>
       </c>
       <c r="F6" s="6">
         <v>44813</v>
@@ -791,7 +789,7 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" si="3"/>
-        <v>2411.2000000000003</v>
+        <v>3918.2000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -806,11 +804,11 @@
       </c>
       <c r="D7" s="10">
         <f>IF(A7&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>2393.6000000000004</v>
+        <v>3889.6000000000004</v>
       </c>
       <c r="F7" s="6">
         <v>44813</v>
@@ -831,7 +829,7 @@
       </c>
       <c r="K7" s="8">
         <f t="shared" si="3"/>
-        <v>2393.6000000000004</v>
+        <v>3889.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -846,11 +844,11 @@
       </c>
       <c r="D8" s="10">
         <f>IF(A8&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>2376</v>
+        <v>3861</v>
       </c>
       <c r="F8" s="6">
         <v>44813</v>
@@ -871,7 +869,7 @@
       </c>
       <c r="K8" s="8">
         <f t="shared" si="3"/>
-        <v>2376</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -886,11 +884,11 @@
       </c>
       <c r="D9" s="10">
         <f>IF(A9&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>2358.4</v>
+        <v>3832.4</v>
       </c>
       <c r="F9" s="6">
         <v>44813</v>
@@ -911,7 +909,7 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" si="3"/>
-        <v>2358.4</v>
+        <v>3832.4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -926,11 +924,11 @@
       </c>
       <c r="D10" s="10">
         <f>IF(A10&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>2340.8000000000002</v>
+        <v>3803.8</v>
       </c>
       <c r="F10" s="6">
         <v>44813</v>
@@ -951,7 +949,7 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" si="3"/>
-        <v>2340.8000000000002</v>
+        <v>3803.8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -966,11 +964,11 @@
       </c>
       <c r="D11" s="10">
         <f>IF(A11&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>2323.2000000000003</v>
+        <v>3775.2000000000003</v>
       </c>
       <c r="F11" s="6">
         <v>44813</v>
@@ -991,7 +989,7 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" si="3"/>
-        <v>2323.2000000000003</v>
+        <v>3775.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1006,11 +1004,11 @@
       </c>
       <c r="D12" s="10">
         <f>IF(A12&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>2305.6000000000004</v>
+        <v>3746.6000000000004</v>
       </c>
       <c r="F12" s="6">
         <v>44813</v>
@@ -1031,7 +1029,7 @@
       </c>
       <c r="K12" s="8">
         <f>SUM(J12,E12)</f>
-        <v>2315.6000000000004</v>
+        <v>3756.6000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1046,11 +1044,11 @@
       </c>
       <c r="D13" s="10">
         <f>IF(A13&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>2288</v>
+        <v>3718</v>
       </c>
       <c r="F13" s="6">
         <v>44813</v>
@@ -1071,7 +1069,7 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" si="3"/>
-        <v>2308</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,11 +1084,11 @@
       </c>
       <c r="D14" s="10">
         <f>IF(A14&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>2270.4</v>
+        <v>3689.4</v>
       </c>
       <c r="F14" s="6">
         <v>44813</v>
@@ -1111,7 +1109,7 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" si="3"/>
-        <v>2300.4</v>
+        <v>3719.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1126,11 +1124,11 @@
       </c>
       <c r="D15" s="10">
         <f>IF(A15&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>2252.8000000000002</v>
+        <v>3660.8</v>
       </c>
       <c r="F15" s="6">
         <v>44813</v>
@@ -1151,7 +1149,7 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" si="3"/>
-        <v>2292.8000000000002</v>
+        <v>3700.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1166,11 +1164,11 @@
       </c>
       <c r="D16" s="10">
         <f>IF(A16&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>2235.2000000000003</v>
+        <v>3632.2000000000003</v>
       </c>
       <c r="F16" s="6">
         <v>44813</v>
@@ -1191,7 +1189,7 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" si="3"/>
-        <v>2285.2000000000003</v>
+        <v>3682.2000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1246,11 +1244,11 @@
       </c>
       <c r="D18" s="10">
         <f>IF(A18&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>3575</v>
       </c>
       <c r="F18" s="6">
         <v>44813</v>
@@ -1271,7 +1269,7 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" si="3"/>
-        <v>2270</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1286,11 +1284,11 @@
       </c>
       <c r="D19" s="10">
         <f>IF(A19&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="0"/>
-        <v>2182.4</v>
+        <v>3546.4</v>
       </c>
       <c r="F19" s="6">
         <v>44813</v>
@@ -1311,7 +1309,7 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" si="3"/>
-        <v>2262.4</v>
+        <v>3626.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,11 +1324,11 @@
       </c>
       <c r="D20" s="10">
         <f>IF(A20&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="0"/>
-        <v>2164.8000000000002</v>
+        <v>3517.8</v>
       </c>
       <c r="F20" s="6">
         <v>44813</v>
@@ -1351,7 +1349,7 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" si="3"/>
-        <v>2254.8000000000002</v>
+        <v>3607.8</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1366,11 +1364,11 @@
       </c>
       <c r="D21" s="10">
         <f>IF(A21&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="0"/>
-        <v>2147.2000000000003</v>
+        <v>3489.2000000000003</v>
       </c>
       <c r="F21" s="6">
         <v>44813</v>
@@ -1391,7 +1389,7 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" si="3"/>
-        <v>2247.2000000000003</v>
+        <v>3589.2000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1406,11 +1404,11 @@
       </c>
       <c r="D22" s="10">
         <f>IF(A22&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="0"/>
-        <v>2129.6000000000004</v>
+        <v>3460.6000000000004</v>
       </c>
       <c r="F22" s="6">
         <v>44813</v>
@@ -1431,7 +1429,7 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" si="3"/>
-        <v>2239.6000000000004</v>
+        <v>3570.6000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1446,11 +1444,11 @@
       </c>
       <c r="D23" s="10">
         <f>IF(A23&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="0"/>
-        <v>2112</v>
+        <v>3432</v>
       </c>
       <c r="F23" s="6">
         <v>44813</v>
@@ -1471,7 +1469,7 @@
       </c>
       <c r="K23" s="8">
         <f t="shared" si="3"/>
-        <v>2232</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,11 +1484,11 @@
       </c>
       <c r="D24" s="10">
         <f>IF(A24&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>2094.4</v>
+        <v>3403.4</v>
       </c>
       <c r="F24" s="6">
         <v>44813</v>
@@ -1511,7 +1509,7 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" si="3"/>
-        <v>2224.4</v>
+        <v>3533.4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1526,11 +1524,11 @@
       </c>
       <c r="D25" s="10">
         <f>IF(A25&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>2076.8000000000002</v>
+        <v>3374.8</v>
       </c>
       <c r="F25" s="6">
         <v>44813</v>
@@ -1551,7 +1549,7 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" si="3"/>
-        <v>2216.8000000000002</v>
+        <v>3514.8</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,11 +1564,11 @@
       </c>
       <c r="D26" s="10">
         <f>IF(A26&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>2059.2000000000003</v>
+        <v>3346.2000000000003</v>
       </c>
       <c r="F26" s="6">
         <v>44813</v>
@@ -1591,7 +1589,7 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" si="3"/>
-        <v>2209.2000000000003</v>
+        <v>3496.2000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,11 +1604,11 @@
       </c>
       <c r="D27" s="10">
         <f>IF(A27&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="0"/>
-        <v>2041.6000000000001</v>
+        <v>3317.6000000000004</v>
       </c>
       <c r="F27" s="6">
         <v>44813</v>
@@ -1631,7 +1629,7 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" si="3"/>
-        <v>2201.6000000000004</v>
+        <v>3477.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,11 +1644,11 @@
       </c>
       <c r="D28" s="10">
         <f>IF(A28&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>2024.0000000000002</v>
+        <v>3289</v>
       </c>
       <c r="F28" s="6">
         <v>44813</v>
@@ -1671,7 +1669,7 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" si="3"/>
-        <v>2194</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1686,11 +1684,11 @@
       </c>
       <c r="D29" s="10">
         <f>IF(A29&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="0"/>
-        <v>2006.4</v>
+        <v>3260.4</v>
       </c>
       <c r="F29" s="6">
         <v>44813</v>
@@ -1711,7 +1709,7 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" si="3"/>
-        <v>2186.4</v>
+        <v>3440.4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,11 +1724,11 @@
       </c>
       <c r="D30" s="10">
         <f>IF(A30&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="0"/>
-        <v>1988.8000000000002</v>
+        <v>3231.8</v>
       </c>
       <c r="F30" s="6">
         <v>44813</v>
@@ -1751,7 +1749,7 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" si="3"/>
-        <v>2178.8000000000002</v>
+        <v>3421.8</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1766,11 +1764,11 @@
       </c>
       <c r="D31" s="10">
         <f>IF(A31&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="0"/>
-        <v>1971.2000000000003</v>
+        <v>3203.2000000000003</v>
       </c>
       <c r="F31" s="6">
         <v>44813</v>
@@ -1791,7 +1789,7 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" si="3"/>
-        <v>2171.2000000000003</v>
+        <v>3403.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1806,11 +1804,11 @@
       </c>
       <c r="D32" s="10">
         <f>IF(A32&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="0"/>
-        <v>1953.6000000000001</v>
+        <v>3174.6000000000004</v>
       </c>
       <c r="F32" s="6">
         <v>44813</v>
@@ -1831,7 +1829,7 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" si="3"/>
-        <v>2163.6000000000004</v>
+        <v>3384.6000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,11 +1844,11 @@
       </c>
       <c r="D33" s="10">
         <f>IF(A33&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="0"/>
-        <v>1936.0000000000002</v>
+        <v>3146</v>
       </c>
       <c r="F33" s="6">
         <v>44813</v>
@@ -1871,7 +1869,7 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" si="3"/>
-        <v>2156</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,11 +1884,11 @@
       </c>
       <c r="D34" s="10">
         <f>IF(A34&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>35.200000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="E34" s="8">
         <f>PRODUCT(C34,D34)</f>
-        <v>1918.4</v>
+        <v>3117.4</v>
       </c>
       <c r="F34" s="6">
         <v>44813</v>
@@ -1911,7 +1909,7 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" si="3"/>
-        <v>2148.4</v>
+        <v>3347.4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,11 +1924,11 @@
       </c>
       <c r="D35" s="10">
         <f>IF(A35&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>17.600000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="0"/>
-        <v>950.40000000000009</v>
+        <v>1544.4</v>
       </c>
       <c r="F35" s="6">
         <v>44813</v>
@@ -1951,7 +1949,7 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="3"/>
-        <v>1190.4000000000001</v>
+        <v>1784.4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1966,11 +1964,11 @@
       </c>
       <c r="D36" s="10">
         <f>IF(A36&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>17.600000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="0"/>
-        <v>941.6</v>
+        <v>1530.1000000000001</v>
       </c>
       <c r="F36" s="6">
         <v>44813</v>
@@ -1991,7 +1989,7 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" si="3"/>
-        <v>1191.5999999999999</v>
+        <v>1780.1000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2006,11 +2004,11 @@
       </c>
       <c r="D37" s="10">
         <f>IF(A37&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>17.600000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="E37" s="8">
         <f>PRODUCT(C37,D37)</f>
-        <v>932.80000000000007</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="F37" s="6">
         <v>44813</v>
@@ -2031,7 +2029,7 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" si="3"/>
-        <v>1192.8000000000002</v>
+        <v>1775.8000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2046,11 +2044,11 @@
       </c>
       <c r="D38" s="10">
         <f>IF(A38&lt;=32,A1*1.1,A1*0.55)</f>
-        <v>17.600000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="0"/>
-        <v>924.00000000000011</v>
+        <v>1501.5</v>
       </c>
       <c r="F38" s="6">
         <v>44813</v>
@@ -2071,7 +2069,7 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" si="3"/>
-        <v>1194</v>
+        <v>1771.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2083,7 +2081,7 @@
       </c>
       <c r="C40" s="11">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>76330</v>
+        <v>121111</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -2111,7 +2109,7 @@
       </c>
       <c r="C43" s="7">
         <f>MAX(K3:K38)</f>
-        <v>2464</v>
+        <v>4004</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_52.xlsx
+++ b/LR3/table_1_52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FF7630-680D-420C-9141-60C099D87E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D6A4B6-78EF-4221-9A59-CCD36B1515F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,13 +203,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2C2D2E"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -251,13 +244,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,18 +627,18 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="6">
         <v>70</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>$A$1*1.1</f>
         <v>57.2</v>
       </c>
       <c r="E3" s="6">
-        <f>PRODUCT($C3,$D3)</f>
+        <f>C3*D3</f>
         <v>4004</v>
       </c>
       <c r="F3" s="4">
@@ -664,40 +655,40 @@
         <v>10</v>
       </c>
       <c r="J3" s="6">
-        <f>PRODUCT($I3,$H3)</f>
+        <f>I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>SUM($J3,$E3)</f>
+        <f>J3+E3</f>
         <v>4004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>$A3+1</f>
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6">
-        <f>$C3-1/2</f>
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>57.2</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E38" si="1">PRODUCT($C4,$D4)</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>3975.4</v>
       </c>
       <c r="F4" s="4">
-        <f>$F$3</f>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <f>$G3+1</f>
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="6">
@@ -705,31 +696,31 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>$I$3</f>
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J38" si="3">PRODUCT($I4,$H4)</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K4:K38" si="4">SUM($J4,$E4)</f>
+        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>3975.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>$A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C38" si="5">$C4-1/2</f>
+        <f t="shared" ref="C5:C37" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -738,11 +729,11 @@
         <v>3946.8</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="7">$G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="6">
@@ -750,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="6">
@@ -764,17 +755,17 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A38" si="9">$A5+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -783,11 +774,11 @@
         <v>3918.2000000000003</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="6">
@@ -795,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="6">
@@ -809,17 +800,17 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -828,11 +819,11 @@
         <v>3889.6000000000004</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="6">
@@ -840,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="6">
@@ -854,17 +845,17 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -873,11 +864,11 @@
         <v>3861</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="6">
@@ -885,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="6">
@@ -899,17 +890,17 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -918,11 +909,11 @@
         <v>3832.4</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="6">
@@ -930,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="6">
@@ -944,17 +935,17 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -963,11 +954,11 @@
         <v>3803.8</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="6">
@@ -975,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -989,17 +980,17 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1008,11 +999,11 @@
         <v>3775.2000000000003</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="6">
@@ -1020,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="6">
@@ -1034,17 +1025,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1053,11 +1044,11 @@
         <v>3746.6000000000004</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="6">
@@ -1065,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -1079,17 +1070,17 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1098,11 +1089,11 @@
         <v>3718</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="6">
@@ -1110,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="6">
@@ -1124,17 +1115,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1143,11 +1134,11 @@
         <v>3689.4</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="6">
@@ -1155,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="6">
@@ -1169,17 +1160,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1188,11 +1179,11 @@
         <v>3660.8</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="6">
@@ -1200,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="6">
@@ -1214,17 +1205,17 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1233,11 +1224,11 @@
         <v>3632.2000000000003</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="6">
@@ -1245,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="6">
@@ -1259,17 +1250,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1278,11 +1269,11 @@
         <v>3603.6000000000004</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="6">
@@ -1290,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="6">
@@ -1304,17 +1295,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1323,11 +1314,11 @@
         <v>3575</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="6">
@@ -1335,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="6">
@@ -1349,17 +1340,17 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1368,11 +1359,11 @@
         <v>3546.4</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="6">
@@ -1380,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -1394,17 +1385,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1413,11 +1404,11 @@
         <v>3517.8</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="6">
@@ -1425,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="6">
@@ -1439,17 +1430,17 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1458,11 +1449,11 @@
         <v>3489.2000000000003</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="6">
@@ -1470,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="6">
@@ -1484,17 +1475,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1503,11 +1494,11 @@
         <v>3460.6000000000004</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="6">
@@ -1515,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="6">
@@ -1529,17 +1520,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1548,11 +1539,11 @@
         <v>3432</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="6">
@@ -1560,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="6">
@@ -1574,17 +1565,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1593,11 +1584,11 @@
         <v>3403.4</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="6">
@@ -1605,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="6">
@@ -1619,17 +1610,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1638,11 +1629,11 @@
         <v>3374.8</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="6">
@@ -1650,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="6">
@@ -1664,17 +1655,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1683,11 +1674,11 @@
         <v>3346.2000000000003</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="6">
@@ -1695,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="6">
@@ -1709,17 +1700,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1728,11 +1719,11 @@
         <v>3317.6000000000004</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="6">
@@ -1740,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="6">
@@ -1754,17 +1745,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1773,11 +1764,11 @@
         <v>3289</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="6">
@@ -1785,7 +1776,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="6">
@@ -1799,17 +1790,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1818,11 +1809,11 @@
         <v>3260.4</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="6">
@@ -1830,7 +1821,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="6">
@@ -1844,17 +1835,17 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1863,11 +1854,11 @@
         <v>3231.8</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="6">
@@ -1875,7 +1866,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="6">
@@ -1889,17 +1880,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1908,11 +1899,11 @@
         <v>3203.2000000000003</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="6">
@@ -1920,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="6">
@@ -1934,17 +1925,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1953,11 +1944,11 @@
         <v>3174.6000000000004</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="6">
@@ -1965,7 +1956,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="6">
@@ -1979,17 +1970,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -1998,11 +1989,11 @@
         <v>3146</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="6">
@@ -2010,7 +2001,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="6">
@@ -2024,17 +2015,17 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
@@ -2043,11 +2034,11 @@
         <v>3117.4</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="6">
@@ -2055,7 +2046,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="6">
@@ -2069,17 +2060,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <f>$A$1*1.1/2</f>
         <v>28.6</v>
       </c>
@@ -2088,11 +2079,11 @@
         <v>1544.4</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="6">
@@ -2100,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="6">
@@ -2114,17 +2105,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>28.6</v>
       </c>
@@ -2133,11 +2124,11 @@
         <v>1530.1000000000001</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="6">
@@ -2145,7 +2136,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="6">
@@ -2159,17 +2150,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <f t="shared" si="10"/>
         <v>28.6</v>
       </c>
@@ -2178,11 +2169,11 @@
         <v>1515.8000000000002</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="6">
@@ -2190,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="6">
@@ -2204,17 +2195,17 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="5"/>
+        <f>C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <f t="shared" si="10"/>
         <v>28.6</v>
       </c>
@@ -2223,11 +2214,11 @@
         <v>1501.5</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="6">
@@ -2235,7 +2226,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="6">
@@ -2248,17 +2239,17 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>123814</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">

--- a/LR3/table_1_52.xlsx
+++ b/LR3/table_1_52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D6A4B6-78EF-4221-9A59-CCD36B1515F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89908F-74E4-471C-9114-E553B3A74E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="7">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>57.2</v>
       </c>
       <c r="E3" s="6">
@@ -648,7 +648,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="6">
-        <f>IF(F3&lt;G3,G3-F3,0)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
@@ -676,11 +676,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>57.2</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>3975.4</v>
       </c>
       <c r="F4" s="4">
@@ -692,7 +692,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&lt;G4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="6">
@@ -700,32 +700,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>3975.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C37" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D33" si="6">D4</f>
         <v>57.2</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3946.8</v>
       </c>
       <c r="F5" s="4">
@@ -737,7 +737,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="6">
@@ -745,32 +745,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3946.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3918.2000000000003</v>
       </c>
       <c r="F6" s="4">
@@ -782,7 +782,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="6">
@@ -790,32 +790,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3918.2000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3889.6000000000004</v>
       </c>
       <c r="F7" s="4">
@@ -827,7 +827,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="6">
@@ -835,32 +835,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3889.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3861</v>
       </c>
       <c r="F8" s="4">
@@ -872,7 +872,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="6">
@@ -880,32 +880,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3861</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3832.4</v>
       </c>
       <c r="F9" s="4">
@@ -917,7 +917,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="6">
@@ -925,32 +925,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3832.4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3803.8</v>
       </c>
       <c r="F10" s="4">
@@ -962,7 +962,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="6">
@@ -970,32 +970,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3803.8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3775.2000000000003</v>
       </c>
       <c r="F11" s="4">
@@ -1007,7 +1007,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="6">
-        <f>IF(F11&lt;G11,G11-F11,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="6">
@@ -1015,32 +1015,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3775.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3746.6000000000004</v>
       </c>
       <c r="F12" s="4">
@@ -1052,7 +1052,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="6">
@@ -1060,32 +1060,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3756.6000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3718</v>
       </c>
       <c r="F13" s="4">
@@ -1097,7 +1097,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="6">
@@ -1105,32 +1105,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3738</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3689.4</v>
       </c>
       <c r="F14" s="4">
@@ -1142,7 +1142,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="6">
@@ -1150,32 +1150,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3719.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3660.8</v>
       </c>
       <c r="F15" s="4">
@@ -1187,7 +1187,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="6">
@@ -1195,32 +1195,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3700.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3632.2000000000003</v>
       </c>
       <c r="F16" s="4">
@@ -1232,7 +1232,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="6">
@@ -1240,32 +1240,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3682.2000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3603.6000000000004</v>
       </c>
       <c r="F17" s="4">
@@ -1277,7 +1277,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="6">
@@ -1285,32 +1285,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3663.6000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3575</v>
       </c>
       <c r="F18" s="4">
@@ -1322,7 +1322,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="6">
@@ -1330,32 +1330,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3645</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3546.4</v>
       </c>
       <c r="F19" s="4">
@@ -1367,7 +1367,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="6">
@@ -1375,32 +1375,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3626.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3517.8</v>
       </c>
       <c r="F20" s="4">
@@ -1412,7 +1412,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="6">
@@ -1420,32 +1420,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3607.8</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3489.2000000000003</v>
       </c>
       <c r="F21" s="4">
@@ -1457,7 +1457,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="6">
@@ -1465,32 +1465,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3589.2000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3460.6000000000004</v>
       </c>
       <c r="F22" s="4">
@@ -1502,7 +1502,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="6">
@@ -1510,32 +1510,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3570.6000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3432</v>
       </c>
       <c r="F23" s="4">
@@ -1547,7 +1547,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="6">
@@ -1555,32 +1555,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3552</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3403.4</v>
       </c>
       <c r="F24" s="4">
@@ -1592,7 +1592,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="6">
@@ -1600,32 +1600,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3533.4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3374.8</v>
       </c>
       <c r="F25" s="4">
@@ -1637,7 +1637,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="6">
@@ -1645,32 +1645,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3514.8</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3346.2000000000003</v>
       </c>
       <c r="F26" s="4">
@@ -1682,7 +1682,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="6">
@@ -1690,32 +1690,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3496.2000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3317.6000000000004</v>
       </c>
       <c r="F27" s="4">
@@ -1727,7 +1727,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="6">
@@ -1735,32 +1735,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3477.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3289</v>
       </c>
       <c r="F28" s="4">
@@ -1772,7 +1772,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="6">
@@ -1780,32 +1780,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3459</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3260.4</v>
       </c>
       <c r="F29" s="4">
@@ -1817,7 +1817,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="6">
@@ -1825,32 +1825,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3440.4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3231.8</v>
       </c>
       <c r="F30" s="4">
@@ -1862,7 +1862,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="6">
@@ -1870,32 +1870,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3421.8</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3203.2000000000003</v>
       </c>
       <c r="F31" s="4">
@@ -1907,7 +1907,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="6">
@@ -1915,32 +1915,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3403.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3174.6000000000004</v>
       </c>
       <c r="F32" s="4">
@@ -1952,7 +1952,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="6">
@@ -1960,32 +1960,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3384.6000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>57.2</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3146</v>
       </c>
       <c r="F33" s="4">
@@ -1997,7 +1997,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="6">
@@ -2005,32 +2005,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3366</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="0"/>
+        <f>D33</f>
         <v>57.2</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3117.4</v>
       </c>
       <c r="F34" s="4">
@@ -2042,7 +2042,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="6">
@@ -2050,32 +2050,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3347.4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="7">
-        <f>$A$1*1.1/2</f>
+        <f>D3/2</f>
         <v>28.6</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1544.4</v>
       </c>
       <c r="F35" s="4">
@@ -2087,7 +2087,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="6">
@@ -2095,32 +2095,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1784.4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <f>D35</f>
         <v>28.6</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1530.1000000000001</v>
       </c>
       <c r="F36" s="4">
@@ -2132,7 +2132,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="6">
@@ -2140,32 +2140,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1780.1000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D37:D38" si="10">D36</f>
         <v>28.6</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1515.8000000000002</v>
       </c>
       <c r="F37" s="4">
@@ -2177,7 +2177,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="6">
@@ -2185,17 +2185,17 @@
         <v>10</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1775.8000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -2210,7 +2210,7 @@
         <v>28.6</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1501.5</v>
       </c>
       <c r="F38" s="4">
@@ -2222,7 +2222,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="6">
@@ -2230,11 +2230,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1771.5</v>
       </c>
     </row>

--- a/LR3/table_1_52.xlsx
+++ b/LR3/table_1_52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05582F0F-A73A-46AF-A8D9-0D7E30C1ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3464C34E-5BA4-4C53-9833-88C39B3AE345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>4004</v>
       </c>
     </row>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>3975.4</v>
       </c>
     </row>

--- a/LR3/table_1_52.xlsx
+++ b/LR3/table_1_52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3464C34E-5BA4-4C53-9833-88C39B3AE345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBDC91-67B5-4A50-A3AC-D4503D9F7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="4">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="4">
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
